--- a/数据整理/stocks/A股/科创板/688383-新益昌.xlsx
+++ b/数据整理/stocks/A股/科创板/688383-新益昌.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1617,4 +1618,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688383-新益昌.xlsx
+++ b/数据整理/stocks/A股/科创板/688383-新益昌.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1626,7 +1627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1637,17 +1638,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1657,14 +1678,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.48</v>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8522</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1673,13 +1716,385 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>005777</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发科技动力股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2100</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>213008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈资源优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8920</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3383</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>16</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.54</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688383-新益昌.xlsx
+++ b/数据整理/stocks/A股/科创板/688383-新益昌.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2025,7 +2026,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2036,17 +2037,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2056,14 +2077,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.54</v>
+          <t>005777</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技动力股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2369</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2072,14 +2115,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.48</v>
+          <t>213008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈资源优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4569</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2088,13 +2153,401 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1910</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>39.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000041</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>39.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>16</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.54</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688383-新益昌.xlsx
+++ b/数据整理/stocks/A股/科创板/688383-新益昌.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2462,7 +2463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2473,17 +2474,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2493,14 +2514,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.11</v>
+          <t>005777</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技动力股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3824</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2509,14 +2552,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.54</v>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3170</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2525,14 +2590,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.48</v>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1797</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2541,13 +2628,341 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013955</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>40.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>40.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>16</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.54</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688383-新益昌.xlsx
+++ b/数据整理/stocks/A股/科创板/688383-新益昌.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>5.54</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>3.48</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>16</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.54</v>
       </c>
     </row>
@@ -566,6 +583,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005777</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技动力股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1248</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3014</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -963,7 +1226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1399,7 +1662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1797,7 +2060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2309,7 +2572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
